--- a/Diagramas/Casos de usos/Historia de  usuario proyecto IdHand con las actividades (editado).xlsx
+++ b/Diagramas/Casos de usos/Historia de  usuario proyecto IdHand con las actividades (editado).xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Editados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\IdHand\Diagramas\Casos de usos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -294,10 +294,6 @@
     <t xml:space="preserve"> 1.Crear interfaz con los campos necesarios para iniciar sección.  2.Crear un formulario de iniciar sección.                                               3.Programar la validación de los datos, para que se verifique que sean los datos correspondientes a los ingresados en el registro, que están contenidos a una base de datos.                                               4.Crear botón de iniciar sección y que lo dirija a un perfil con el formulario de la información requerida.                                 5.Crear botón para recuperar contraseña.                                                                                                                     </t>
   </si>
   <si>
-    <t xml:space="preserve">Dado que quiero iniciar sección, el sistema debe contar con los cambos de ingresar correo y contraseña, y debe tener un botón de "iniciar sesión" que valide la información ingresada en el registro, y me permita ingresar. La aplicación también debe contar con un botón para solicitar recuperar contraseña, para que puede cambiar contraseña en caso de que esta sea olvidada. Cuando le dé en el botón de iniciar sesión y se valide la información el sistema debe abrir una pantalla principal con las funcionalidades del usuario.
-</t>
-  </si>
-  <si>
     <t>Al momento de abrir la aplicación móvil debe aparecer una pantalla de inicio que permita acceder a las opciones de registrar, iniciar sesión, leer código QR.</t>
   </si>
   <si>
@@ -341,9 +337,6 @@
     <t>Dado que quiero ingresar a una pantalla de inicio, la aplicación debe contar con botones con la opción de registrarse, iniciar sesión y lector de código QR, y que estos me dirijan a su pantalla correspondiente.</t>
   </si>
   <si>
-    <t>Dado que quiero generar un un código QR, la aplicación móvil debe tener una sesión de generar el código para descargarlo. La información se debe mostrar al escanearlo. Adicionalmente la aplicación debe tener la opción que le permita  leer código QR.</t>
-  </si>
-  <si>
     <t>Como usuario quiero ingresar mi información desde el aplicativo móvil en un formulario con los campos necesarios, para generar un código QR.</t>
   </si>
   <si>
@@ -360,9 +353,6 @@
   </si>
   <si>
     <t>Al momento de presionar un botón se debe escuchar el audio grabado y subido por el usuario a la tarjeta Micro SD, que contenga la información de: nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dado que quiero subir un audio con información, la aplicación debe tener una sesión para grabar el audio y descárgalo, y que este se almacene en la base de datos.</t>
   </si>
   <si>
     <t>Como usuario quiero poder cerrar sesión después de iniciar sesión para poder salirme de mi perfil y volver a la pantalla de inicio.</t>
@@ -452,9 +442,6 @@
     <t>1.Crear un botón de añadir.                2.Crear una lista con el tipo de padecimiento (enfermedad y alergia)                                        3.Crear una lista de despliegue con las enfermedades y alergias.</t>
   </si>
   <si>
-    <t>El usuario puede seleccionar el padecimiento que tiene, y añadir varias.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Permitir gestionar al administrador la base de datos. 2.Permitir eliminar, modifica, y crear información.                3.Permitir gestionar al usuario.                                          </t>
   </si>
   <si>
@@ -462,13 +449,26 @@
   </si>
   <si>
     <t>Como Usuario quiero seleccionar padecimiento, teniendo una lista con el tipo de padecimiento (enfermedad o alergia a un medicamento) y el nombre del padecimiento para poder que esta se añada a mi información personal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado que quiero iniciar sección, el sistema debe contar con los campos de ingresar correo y contraseña, y debe tener un botón de "iniciar sesión" que valide la información ingresada en el registro, y me permita ingresar. La aplicación también debe contar con un botón para solicitar recuperar contraseña, para que puede cambiar contraseña en caso de que esta sea olvidada. Cuando le dé en el botón de iniciar sesión y se valide la información el sistema debe abrir una pantalla principal con las funcionalidades del usuario.
+</t>
+  </si>
+  <si>
+    <t>Dado que quiero generar un  código QR, la aplicación móvil debe tener una sesión de generar el código para descargarlo. La información se debe mostrar al escanearlo. Adicionalmente la aplicación debe tener la opción que le permita  leer código QR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dado que quiero subir un audio con información, la aplicación debe tener una sesión para grabar el audio y descargarlo, y que este se almacene en la base de datos.</t>
+  </si>
+  <si>
+    <t>El usuario puede seleccionar el padecimiento que tiene, y añadir varios.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -569,6 +569,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -723,7 +732,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -770,15 +779,54 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -794,44 +842,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1422,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1463,10 +1475,10 @@
       <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="301.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -1495,10 +1507,10 @@
       <c r="H2" s="8">
         <v>5</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -1515,9 +1527,9 @@
         <v>77</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="9" t="str">
+        <v>115</v>
+      </c>
+      <c r="E3" s="43" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
@@ -1531,23 +1543,23 @@
       <c r="H3" s="9">
         <v>5</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="33"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="378" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1563,20 +1575,20 @@
       <c r="H4" s="9">
         <v>5</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="42"/>
+      <c r="I4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:14" ht="148.5" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>63</v>
@@ -1595,23 +1607,23 @@
       <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="33"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:14" ht="246.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1627,23 +1639,23 @@
       <c r="H6" s="9">
         <v>5</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:14" ht="279" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1659,23 +1671,23 @@
       <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="J7" s="31"/>
+      <c r="I7" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="283.5" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1691,10 +1703,10 @@
       <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="31"/>
+      <c r="I8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="159.75" customHeight="1">
       <c r="A9" s="9" t="s">
@@ -1704,10 +1716,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1723,10 +1735,10 @@
       <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="31"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="147.75" customHeight="1">
       <c r="A10" s="9" t="s">
@@ -1755,17 +1767,17 @@
       <c r="H10" s="9">
         <v>3</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="117.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>71</v>
@@ -1787,23 +1799,23 @@
       <c r="H11" s="9">
         <v>3</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:14" ht="249.75" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1819,23 +1831,23 @@
       <c r="H12" s="9">
         <v>3</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="33"/>
+      <c r="I12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:14" ht="409.6" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1851,10 +1863,10 @@
       <c r="H13" s="11">
         <v>4</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="24"/>
+      <c r="I13" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="388.5" customHeight="1">
       <c r="A14" s="11" t="s">
@@ -1867,7 +1879,7 @@
         <v>83</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1883,10 +1895,10 @@
       <c r="H14" s="11">
         <v>5</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="150" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -1915,10 +1927,10 @@
       <c r="H15" s="11">
         <v>3</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="26"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="151.5" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -1928,7 +1940,7 @@
         <v>84</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>52</v>
@@ -1947,10 +1959,10 @@
       <c r="H16" s="11">
         <v>2</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1">
@@ -1980,10 +1992,10 @@
       <c r="H17" s="11">
         <v>3</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="327" customHeight="1">
@@ -1991,13 +2003,13 @@
         <v>49</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="D18" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2013,10 +2025,10 @@
       <c r="H18" s="11">
         <v>3</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="24"/>
+      <c r="I18" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1">
       <c r="A19" s="16" t="s">
@@ -2029,28 +2041,28 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:11">
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="14"/>
     </row>
     <row r="28" spans="1:11">
@@ -2075,19 +2087,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I14:J14"/>
@@ -2096,6 +2095,19 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/Diagramas/Casos de usos/Historia de  usuario proyecto IdHand con las actividades (editado).xlsx
+++ b/Diagramas/Casos de usos/Historia de  usuario proyecto IdHand con las actividades (editado).xlsx
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>Dado que quiero ingresar a una pantalla de inicio, la aplicación debe contar con botones con la opción de registrarse, iniciar sesión y lector de código QR, y que estos me dirijan a su pantalla correspondiente.</t>
-  </si>
-  <si>
-    <t>Como usuario quiero ingresar mi información desde el aplicativo móvil en un formulario con los campos necesarios, para generar un código QR.</t>
   </si>
   <si>
     <t>Se debe ingresar información requerida como número de documento, nombre completo, RH, Alguna alergia, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco ; para generar un código QR.</t>
@@ -462,6 +459,9 @@
   </si>
   <si>
     <t>El usuario puede seleccionar el padecimiento que tiene, y añadir varios.</t>
+  </si>
+  <si>
+    <t>Como usuario quiero ingresar mi información desde el aplicativo móvil en un formulario con los campos necesarios.</t>
   </si>
 </sst>
 </file>
@@ -779,18 +779,57 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -803,47 +842,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1434,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1475,10 +1475,10 @@
       <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="27"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="301.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -1507,10 +1507,10 @@
       <c r="H2" s="8">
         <v>5</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="29"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -1527,9 +1527,9 @@
         <v>77</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="43" t="str">
+        <v>114</v>
+      </c>
+      <c r="E3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
@@ -1543,23 +1543,23 @@
       <c r="H3" s="9">
         <v>5</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:14" ht="378" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1575,17 +1575,17 @@
       <c r="H4" s="9">
         <v>5</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:14" ht="148.5" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>96</v>
@@ -1607,23 +1607,23 @@
       <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="31"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="246.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1639,10 +1639,10 @@
       <c r="H6" s="9">
         <v>5</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="279" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -1652,10 +1652,10 @@
         <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1671,10 +1671,10 @@
       <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" s="25"/>
+      <c r="I7" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="283.5" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -1703,10 +1703,10 @@
       <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="159.75" customHeight="1">
       <c r="A9" s="9" t="s">
@@ -1735,10 +1735,10 @@
       <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="147.75" customHeight="1">
       <c r="A10" s="9" t="s">
@@ -1767,17 +1767,17 @@
       <c r="H10" s="9">
         <v>3</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="117.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>71</v>
@@ -1809,13 +1809,13 @@
         <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1831,10 +1831,10 @@
       <c r="H12" s="9">
         <v>3</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="31"/>
+      <c r="I12" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:14" ht="409.6" customHeight="1">
       <c r="A13" s="11" t="s">
@@ -1847,7 +1847,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1863,10 +1863,10 @@
       <c r="H13" s="11">
         <v>4</v>
       </c>
-      <c r="I13" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="34"/>
+      <c r="I13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="388.5" customHeight="1">
       <c r="A14" s="11" t="s">
@@ -1879,7 +1879,7 @@
         <v>83</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1895,10 +1895,10 @@
       <c r="H14" s="11">
         <v>5</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="34"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:14" ht="150" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -1927,10 +1927,10 @@
       <c r="H15" s="11">
         <v>3</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="39"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="151.5" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -1940,7 +1940,7 @@
         <v>84</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>52</v>
@@ -1959,10 +1959,10 @@
       <c r="H16" s="11">
         <v>2</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1">
@@ -1992,10 +1992,10 @@
       <c r="H17" s="11">
         <v>3</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="327" customHeight="1">
@@ -2025,10 +2025,10 @@
       <c r="H18" s="11">
         <v>3</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1">
       <c r="A19" s="16" t="s">
@@ -2041,28 +2041,28 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:11">
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="14"/>
     </row>
     <row r="28" spans="1:11">
@@ -2087,6 +2087,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I14:J14"/>
@@ -2095,19 +2108,6 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/Diagramas/Casos de usos/Historia de  usuario proyecto IdHand con las actividades (editado).xlsx
+++ b/Diagramas/Casos de usos/Historia de  usuario proyecto IdHand con las actividades (editado).xlsx
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>Dado que quiero ingresar a una pantalla de inicio, la aplicación debe contar con botones con la opción de registrarse, iniciar sesión y lector de código QR, y que estos me dirijan a su pantalla correspondiente.</t>
-  </si>
-  <si>
-    <t>Se debe ingresar información requerida como número de documento, nombre completo, RH, Alguna alergia, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco ; para generar un código QR.</t>
   </si>
   <si>
     <t>Dado que quiero ingresar mi información, los datos de ingresar mi nombre completo, número de documento, RH, alergia a algún medicamento, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco, se deben mostrar en un formulario, y también debe tener un botón para registrar información.</t>
@@ -461,7 +458,10 @@
     <t>El usuario puede seleccionar el padecimiento que tiene, y añadir varios.</t>
   </si>
   <si>
-    <t>Como usuario quiero ingresar mi información desde el aplicativo móvil en un formulario con los campos necesarios.</t>
+    <t>Como usuario quiero ingresar mi información desde el aplicativo móvil en un formulario con los campos necesarios, para culminar el registro.</t>
+  </si>
+  <si>
+    <t>Se debe ingresar información requerida como número de documento, nombre completo, RH, Alguna alergia, sufre de alguna enfermedad, centro de remisión, EPS, ARL, contacto de emergencia y parentesco.</t>
   </si>
 </sst>
 </file>
@@ -782,15 +782,54 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -804,45 +843,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1434,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1475,10 +1475,10 @@
       <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="40"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="301.5" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -1507,10 +1507,10 @@
       <c r="H2" s="8">
         <v>5</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -1527,7 +1527,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1543,23 +1543,23 @@
       <c r="H3" s="9">
         <v>5</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="34"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:14" ht="378" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1575,17 +1575,17 @@
       <c r="H4" s="9">
         <v>5</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:14" ht="148.5" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>96</v>
@@ -1607,23 +1607,23 @@
       <c r="H5" s="9">
         <v>3</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="34"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="246.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1639,10 +1639,10 @@
       <c r="H6" s="9">
         <v>5</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="38"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="279" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -1652,10 +1652,10 @@
         <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1671,10 +1671,10 @@
       <c r="H7" s="9">
         <v>5</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="32"/>
+      <c r="I7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:14" ht="283.5" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -1703,10 +1703,10 @@
       <c r="H8" s="9">
         <v>3</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="32"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:14" ht="159.75" customHeight="1">
       <c r="A9" s="9" t="s">
@@ -1735,10 +1735,10 @@
       <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="32"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="147.75" customHeight="1">
       <c r="A10" s="9" t="s">
@@ -1767,17 +1767,17 @@
       <c r="H10" s="9">
         <v>3</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="117.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>71</v>
@@ -1799,23 +1799,23 @@
       <c r="H11" s="9">
         <v>3</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="36"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="249.75" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1831,10 +1831,10 @@
       <c r="H12" s="9">
         <v>3</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="34"/>
+      <c r="I12" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="409.6" customHeight="1">
       <c r="A13" s="11" t="s">
@@ -1847,7 +1847,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1863,10 +1863,10 @@
       <c r="H13" s="11">
         <v>4</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="25"/>
+      <c r="I13" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:14" ht="388.5" customHeight="1">
       <c r="A14" s="11" t="s">
@@ -1879,7 +1879,7 @@
         <v>83</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1895,10 +1895,10 @@
       <c r="H14" s="11">
         <v>5</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:14" ht="150" customHeight="1">
       <c r="A15" s="11" t="s">
@@ -1927,10 +1927,10 @@
       <c r="H15" s="11">
         <v>3</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="27"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="151.5" customHeight="1">
       <c r="A16" s="11" t="s">
@@ -1940,7 +1940,7 @@
         <v>84</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>52</v>
@@ -1959,10 +1959,10 @@
       <c r="H16" s="11">
         <v>2</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="99.75" customHeight="1">
@@ -1992,10 +1992,10 @@
       <c r="H17" s="11">
         <v>3</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="327" customHeight="1">
@@ -2025,10 +2025,10 @@
       <c r="H18" s="11">
         <v>3</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1">
       <c r="A19" s="16" t="s">
@@ -2041,28 +2041,28 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:11">
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="14"/>
     </row>
     <row r="28" spans="1:11">
@@ -2087,19 +2087,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I14:J14"/>
@@ -2108,6 +2095,19 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
